--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_100ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_100ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1827,28 +1827,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>179.3352915510537</v>
+        <v>203.7264927784097</v>
       </c>
       <c r="AB2" t="n">
-        <v>245.3744576147222</v>
+        <v>278.7475751978274</v>
       </c>
       <c r="AC2" t="n">
-        <v>221.9562637652586</v>
+        <v>252.1442978457075</v>
       </c>
       <c r="AD2" t="n">
-        <v>179335.2915510537</v>
+        <v>203726.4927784097</v>
       </c>
       <c r="AE2" t="n">
-        <v>245374.4576147223</v>
+        <v>278747.5751978274</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.152746113368538e-06</v>
+        <v>7.683667558585457e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.659375</v>
       </c>
       <c r="AH2" t="n">
-        <v>221956.2637652586</v>
+        <v>252144.2978457075</v>
       </c>
     </row>
     <row r="3">
@@ -1933,28 +1933,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>76.9418843895008</v>
+        <v>89.05223365715823</v>
       </c>
       <c r="AB3" t="n">
-        <v>105.2752806580454</v>
+        <v>121.8451947969487</v>
       </c>
       <c r="AC3" t="n">
-        <v>95.22795562685255</v>
+        <v>110.2164604163647</v>
       </c>
       <c r="AD3" t="n">
-        <v>76941.8843895008</v>
+        <v>89052.23365715823</v>
       </c>
       <c r="AE3" t="n">
-        <v>105275.2806580454</v>
+        <v>121845.1947969487</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.373144850550105e-06</v>
+        <v>1.364224836922882e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.061458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>95227.95562685255</v>
+        <v>110216.4604163647</v>
       </c>
     </row>
     <row r="4">
@@ -2039,28 +2039,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>76.21798783816378</v>
+        <v>88.32833710582121</v>
       </c>
       <c r="AB4" t="n">
-        <v>104.2848134604447</v>
+        <v>120.854727599348</v>
       </c>
       <c r="AC4" t="n">
-        <v>94.33201722846107</v>
+        <v>109.3205220179733</v>
       </c>
       <c r="AD4" t="n">
-        <v>76217.98783816378</v>
+        <v>88328.33710582121</v>
       </c>
       <c r="AE4" t="n">
-        <v>104284.8134604447</v>
+        <v>120854.727599348</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.444919988882759e-06</v>
+        <v>1.377505116691111e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.041666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>94332.01722846107</v>
+        <v>109320.5220179733</v>
       </c>
     </row>
   </sheetData>
@@ -2336,28 +2336,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>107.3501041344653</v>
+        <v>130.7921875453279</v>
       </c>
       <c r="AB2" t="n">
-        <v>146.8811484290607</v>
+        <v>178.9556411435172</v>
       </c>
       <c r="AC2" t="n">
-        <v>132.8630177720175</v>
+        <v>161.8763659186498</v>
       </c>
       <c r="AD2" t="n">
-        <v>107350.1041344653</v>
+        <v>130792.1875453279</v>
       </c>
       <c r="AE2" t="n">
-        <v>146881.1484290607</v>
+        <v>178955.6411435172</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.562137953312766e-06</v>
+        <v>1.060229335710596e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.826041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>132863.0177720175</v>
+        <v>161876.3659186498</v>
       </c>
     </row>
     <row r="3">
@@ -2442,28 +2442,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>73.73257202676928</v>
+        <v>85.41103281346579</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.8841578984894</v>
+        <v>116.8631431641673</v>
       </c>
       <c r="AC3" t="n">
-        <v>91.25591546048774</v>
+        <v>105.709888799061</v>
       </c>
       <c r="AD3" t="n">
-        <v>73732.57202676928</v>
+        <v>85411.03281346579</v>
       </c>
       <c r="AE3" t="n">
-        <v>100884.1578984894</v>
+        <v>116863.1431641673</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.46865219154264e-06</v>
+        <v>1.42364037320875e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.105208333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>91255.91546048774</v>
+        <v>105709.888799061</v>
       </c>
     </row>
   </sheetData>
@@ -2739,28 +2739,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>72.87698711474923</v>
+        <v>83.42577046051159</v>
       </c>
       <c r="AB2" t="n">
-        <v>99.71350887612181</v>
+        <v>114.146819629263</v>
       </c>
       <c r="AC2" t="n">
-        <v>90.19699153779828</v>
+        <v>103.2528073699432</v>
       </c>
       <c r="AD2" t="n">
-        <v>72876.98711474922</v>
+        <v>83425.77046051159</v>
       </c>
       <c r="AE2" t="n">
-        <v>99713.50887612181</v>
+        <v>114146.819629263</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.809911445343807e-06</v>
+        <v>1.450332920477495e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.576041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>90196.99153779828</v>
+        <v>103252.8073699432</v>
       </c>
     </row>
     <row r="3">
@@ -2845,28 +2845,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>72.97315626821822</v>
+        <v>83.52193961398056</v>
       </c>
       <c r="AB3" t="n">
-        <v>99.84509175458162</v>
+        <v>114.2784025077228</v>
       </c>
       <c r="AC3" t="n">
-        <v>90.31601633101565</v>
+        <v>103.3718321631605</v>
       </c>
       <c r="AD3" t="n">
-        <v>72973.15626821821</v>
+        <v>83521.93961398056</v>
       </c>
       <c r="AE3" t="n">
-        <v>99845.09175458162</v>
+        <v>114278.4025077228</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.831129795009064e-06</v>
+        <v>1.454851873665758e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.567708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>90316.01633101565</v>
+        <v>103371.8321631605</v>
       </c>
     </row>
   </sheetData>
@@ -3142,28 +3142,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>71.55246911757409</v>
+        <v>82.4390138177537</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.90124491877769</v>
+        <v>112.7966956580117</v>
       </c>
       <c r="AC2" t="n">
-        <v>88.55768750901407</v>
+        <v>102.0315373355967</v>
       </c>
       <c r="AD2" t="n">
-        <v>71552.46911757409</v>
+        <v>82439.0138177537</v>
       </c>
       <c r="AE2" t="n">
-        <v>97901.24491877769</v>
+        <v>112796.6956580117</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.242043114248292e-06</v>
+        <v>1.470385132552804e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.317708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>88557.68750901407</v>
+        <v>102031.5373355967</v>
       </c>
     </row>
     <row r="3">
@@ -3248,28 +3248,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>71.45493134732966</v>
+        <v>82.34147604750927</v>
       </c>
       <c r="AB3" t="n">
-        <v>97.76778943846661</v>
+        <v>112.6632401777006</v>
       </c>
       <c r="AC3" t="n">
-        <v>88.4369688324379</v>
+        <v>101.9108186590205</v>
       </c>
       <c r="AD3" t="n">
-        <v>71454.93134732966</v>
+        <v>82341.47604750928</v>
       </c>
       <c r="AE3" t="n">
-        <v>97767.78943846661</v>
+        <v>112663.2401777006</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.271847086755931e-06</v>
+        <v>1.476436369389551e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.307291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>88436.96883243789</v>
+        <v>101910.8186590205</v>
       </c>
     </row>
   </sheetData>
@@ -3545,28 +3545,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.25790801125713</v>
+        <v>96.26554375067221</v>
       </c>
       <c r="AB2" t="n">
-        <v>104.3394340024247</v>
+        <v>131.7147638956714</v>
       </c>
       <c r="AC2" t="n">
-        <v>94.38142486257495</v>
+        <v>119.1440916923358</v>
       </c>
       <c r="AD2" t="n">
-        <v>76257.90801125712</v>
+        <v>96265.54375067221</v>
       </c>
       <c r="AE2" t="n">
-        <v>104339.4340024247</v>
+        <v>131714.7638956714</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.251698794652732e-06</v>
+        <v>1.392131210861931e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.914583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>94381.42486257495</v>
+        <v>119144.0916923358</v>
       </c>
     </row>
   </sheetData>
@@ -3842,28 +3842,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>130.8029468352276</v>
+        <v>142.6802666713703</v>
       </c>
       <c r="AB2" t="n">
-        <v>178.9703624786243</v>
+        <v>195.2214354687965</v>
       </c>
       <c r="AC2" t="n">
-        <v>161.8896822701959</v>
+        <v>176.5897756627153</v>
       </c>
       <c r="AD2" t="n">
-        <v>130802.9468352276</v>
+        <v>142680.2666713703</v>
       </c>
       <c r="AE2" t="n">
-        <v>178970.3624786243</v>
+        <v>195221.4354687965</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.190620232592464e-06</v>
+        <v>9.814236153404406e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.001041666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>161889.6822701959</v>
+        <v>176589.7756627153</v>
       </c>
     </row>
     <row r="3">
@@ -3948,28 +3948,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>74.39181594540787</v>
+        <v>86.18379492697896</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.7861645117594</v>
+        <v>117.9204703797339</v>
       </c>
       <c r="AC3" t="n">
-        <v>92.07183582856169</v>
+        <v>106.6663061891423</v>
       </c>
       <c r="AD3" t="n">
-        <v>74391.81594540787</v>
+        <v>86183.79492697897</v>
       </c>
       <c r="AE3" t="n">
-        <v>101786.1645117594</v>
+        <v>117920.4703797339</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.456001569049504e-06</v>
+        <v>1.40975368799536e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.089583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>92071.83582856169</v>
+        <v>106666.3061891423</v>
       </c>
     </row>
   </sheetData>
@@ -4245,28 +4245,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>90.36944498409053</v>
+        <v>100.1691234774402</v>
       </c>
       <c r="AB2" t="n">
-        <v>123.647461445719</v>
+        <v>137.055813891616</v>
       </c>
       <c r="AC2" t="n">
-        <v>111.8467212656742</v>
+        <v>123.9753993728799</v>
       </c>
       <c r="AD2" t="n">
-        <v>90369.44498409053</v>
+        <v>100169.1234774402</v>
       </c>
       <c r="AE2" t="n">
-        <v>123647.461445719</v>
+        <v>137055.813891616</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.77911825193637e-06</v>
+        <v>1.324901433821445e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.226041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>111846.7212656742</v>
+        <v>123975.3993728799</v>
       </c>
     </row>
   </sheetData>
@@ -4542,28 +4542,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>79.10473765717276</v>
+        <v>90.41477697780903</v>
       </c>
       <c r="AB2" t="n">
-        <v>108.2345919172245</v>
+        <v>123.7094866794311</v>
       </c>
       <c r="AC2" t="n">
-        <v>97.90483437287604</v>
+        <v>111.9028268981337</v>
       </c>
       <c r="AD2" t="n">
-        <v>79104.73765717277</v>
+        <v>90414.77697780903</v>
       </c>
       <c r="AE2" t="n">
-        <v>108234.5919172245</v>
+        <v>123709.4866794311</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.87839457131461e-06</v>
+        <v>1.348155830081639e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.355208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>97904.83437287604</v>
+        <v>111902.8268981337</v>
       </c>
     </row>
     <row r="3">
@@ -4648,28 +4648,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>72.40761568950833</v>
+        <v>83.7176550101446</v>
       </c>
       <c r="AB3" t="n">
-        <v>99.07129418490169</v>
+        <v>114.5461889471082</v>
       </c>
       <c r="AC3" t="n">
-        <v>89.61606891535403</v>
+        <v>103.6140614406117</v>
       </c>
       <c r="AD3" t="n">
-        <v>72407.61568950833</v>
+        <v>83717.65501014459</v>
       </c>
       <c r="AE3" t="n">
-        <v>99071.29418490169</v>
+        <v>114546.1889471082</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.410480070399959e-06</v>
+        <v>1.45244385256371e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.185416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>89616.06891535403</v>
+        <v>103614.0614406117</v>
       </c>
     </row>
   </sheetData>
@@ -4945,28 +4945,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>96.78629068710256</v>
+        <v>119.9927043645398</v>
       </c>
       <c r="AB2" t="n">
-        <v>132.4272728278285</v>
+        <v>164.1793118159978</v>
       </c>
       <c r="AC2" t="n">
-        <v>119.7885997720206</v>
+        <v>148.5102687234357</v>
       </c>
       <c r="AD2" t="n">
-        <v>96786.29068710256</v>
+        <v>119992.7043645398</v>
       </c>
       <c r="AE2" t="n">
-        <v>132427.2728278285</v>
+        <v>164179.3118159978</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.973141561244051e-06</v>
+        <v>1.148457768447382e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.657291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>119788.5997720206</v>
+        <v>148510.2687234357</v>
       </c>
     </row>
     <row r="3">
@@ -5051,28 +5051,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>73.16977614278839</v>
+        <v>84.73040206277223</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.1141157412251</v>
+        <v>115.9318741437593</v>
       </c>
       <c r="AC3" t="n">
-        <v>90.55936504595149</v>
+        <v>104.8674987869162</v>
       </c>
       <c r="AD3" t="n">
-        <v>73169.7761427884</v>
+        <v>84730.40206277223</v>
       </c>
       <c r="AE3" t="n">
-        <v>100114.1157412251</v>
+        <v>115931.8741437593</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.463722759377338e-06</v>
+        <v>1.435052274695991e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.126041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>90559.36504595149</v>
+        <v>104867.4987869162</v>
       </c>
     </row>
   </sheetData>
@@ -5348,28 +5348,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>160.5537637781149</v>
+        <v>184.5688824562615</v>
       </c>
       <c r="AB2" t="n">
-        <v>219.6767427332734</v>
+        <v>252.5352875809593</v>
       </c>
       <c r="AC2" t="n">
-        <v>198.7111027251177</v>
+        <v>228.4336741698082</v>
       </c>
       <c r="AD2" t="n">
-        <v>160553.7637781149</v>
+        <v>184568.8824562615</v>
       </c>
       <c r="AE2" t="n">
-        <v>219676.7427332734</v>
+        <v>252535.2875809593</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.481662137426236e-06</v>
+        <v>8.34899664397732e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.417708333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>198711.1027251176</v>
+        <v>228433.6741698082</v>
       </c>
     </row>
     <row r="3">
@@ -5454,28 +5454,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>75.71991462440634</v>
+        <v>87.72751871775516</v>
       </c>
       <c r="AB3" t="n">
-        <v>103.6033277159427</v>
+        <v>120.0326613745599</v>
       </c>
       <c r="AC3" t="n">
-        <v>93.71557152694292</v>
+        <v>108.5769126399015</v>
       </c>
       <c r="AD3" t="n">
-        <v>75719.91462440634</v>
+        <v>87727.51871775516</v>
       </c>
       <c r="AE3" t="n">
-        <v>103603.3277159427</v>
+        <v>120032.6613745598</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.426792212183355e-06</v>
+        <v>1.383555059566475e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.0625</v>
       </c>
       <c r="AH3" t="n">
-        <v>93715.57152694292</v>
+        <v>108576.9126399015</v>
       </c>
     </row>
     <row r="4">
@@ -5560,28 +5560,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>75.41156529858745</v>
+        <v>87.41916939193625</v>
       </c>
       <c r="AB4" t="n">
-        <v>103.1814305649453</v>
+        <v>119.6107642235624</v>
       </c>
       <c r="AC4" t="n">
-        <v>93.33393964790021</v>
+        <v>108.1952807608588</v>
       </c>
       <c r="AD4" t="n">
-        <v>75411.56529858745</v>
+        <v>87419.16939193624</v>
       </c>
       <c r="AE4" t="n">
-        <v>103181.4305649453</v>
+        <v>119610.7642235624</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.466937034951912e-06</v>
+        <v>1.391033735564132e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.051041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>93333.9396479002</v>
+        <v>108195.2807608588</v>
       </c>
     </row>
   </sheetData>
@@ -5857,28 +5857,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>71.99679623669604</v>
+        <v>83.03202837978435</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.50919288548907</v>
+        <v>113.6080843437376</v>
       </c>
       <c r="AC2" t="n">
-        <v>89.10761377504303</v>
+        <v>102.7654882239484</v>
       </c>
       <c r="AD2" t="n">
-        <v>71996.79623669604</v>
+        <v>83032.02837978434</v>
       </c>
       <c r="AE2" t="n">
-        <v>98509.19288548907</v>
+        <v>113608.0843437376</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.282334049381402e-06</v>
+        <v>1.459741933995192e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.276041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>89107.61377504304</v>
+        <v>102765.4882239484</v>
       </c>
     </row>
     <row r="3">
@@ -5963,28 +5963,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>71.64729002389888</v>
+        <v>82.68252216698721</v>
       </c>
       <c r="AB3" t="n">
-        <v>98.03098306601436</v>
+        <v>113.1298745242629</v>
       </c>
       <c r="AC3" t="n">
-        <v>88.67504362956716</v>
+        <v>102.3329180784725</v>
       </c>
       <c r="AD3" t="n">
-        <v>71647.29002389888</v>
+        <v>82682.52216698721</v>
       </c>
       <c r="AE3" t="n">
-        <v>98030.98306601436</v>
+        <v>113129.8745242629</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.338014251174557e-06</v>
+        <v>1.470903015717017e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.258333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>88675.04362956715</v>
+        <v>102332.9180784725</v>
       </c>
     </row>
   </sheetData>
@@ -6260,28 +6260,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>71.93860998421752</v>
+        <v>82.49860764506884</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.42957988785173</v>
+        <v>112.8782345616383</v>
       </c>
       <c r="AC2" t="n">
-        <v>89.03559893016261</v>
+        <v>102.1052942807018</v>
       </c>
       <c r="AD2" t="n">
-        <v>71938.60998421752</v>
+        <v>82498.60764506884</v>
       </c>
       <c r="AE2" t="n">
-        <v>98429.57988785172</v>
+        <v>112878.2345616383</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.006934954554902e-06</v>
+        <v>1.465894612404502e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.463541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>89035.59893016261</v>
+        <v>102105.2942807018</v>
       </c>
     </row>
     <row r="3">
@@ -6366,28 +6366,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>71.96324574296989</v>
+        <v>82.52324340382121</v>
       </c>
       <c r="AB3" t="n">
-        <v>98.46328761982966</v>
+        <v>112.9119422936162</v>
       </c>
       <c r="AC3" t="n">
-        <v>89.0660896435097</v>
+        <v>102.1357849940489</v>
       </c>
       <c r="AD3" t="n">
-        <v>71963.24574296988</v>
+        <v>82523.24340382121</v>
       </c>
       <c r="AE3" t="n">
-        <v>98463.28761982966</v>
+        <v>112911.9422936162</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.030797940470186e-06</v>
+        <v>1.470886898292123e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.455208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>89066.08964350969</v>
+        <v>102135.7849940489</v>
       </c>
     </row>
   </sheetData>
@@ -10540,28 +10540,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.99527714633112</v>
+        <v>94.44070669754723</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.2436026328057</v>
+        <v>129.2179413334581</v>
       </c>
       <c r="AC2" t="n">
-        <v>91.5810552938448</v>
+        <v>116.8855623711468</v>
       </c>
       <c r="AD2" t="n">
-        <v>73995.27714633112</v>
+        <v>94440.70669754723</v>
       </c>
       <c r="AE2" t="n">
-        <v>101243.6026328057</v>
+        <v>129217.9413334581</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.578252358561682e-06</v>
+        <v>1.430017184523357e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.714583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>91581.05529384479</v>
+        <v>116885.5623711468</v>
       </c>
     </row>
   </sheetData>
@@ -10837,28 +10837,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>98.16822049257026</v>
+        <v>117.1929751746512</v>
       </c>
       <c r="AB2" t="n">
-        <v>134.3180901541087</v>
+        <v>160.3485988230596</v>
       </c>
       <c r="AC2" t="n">
-        <v>121.49896014646</v>
+        <v>145.0451536021028</v>
       </c>
       <c r="AD2" t="n">
-        <v>98168.22049257025</v>
+        <v>117192.9751746512</v>
       </c>
       <c r="AE2" t="n">
-        <v>134318.0901541087</v>
+        <v>160348.5988230596</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.084591899876923e-06</v>
+        <v>1.209383893236824e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.769791666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>121498.96014646</v>
+        <v>145045.1536021028</v>
       </c>
     </row>
   </sheetData>
@@ -11134,28 +11134,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>87.01476614471308</v>
+        <v>98.45277109984593</v>
       </c>
       <c r="AB2" t="n">
-        <v>119.0574418596999</v>
+        <v>134.7074248484699</v>
       </c>
       <c r="AC2" t="n">
-        <v>107.6947667068103</v>
+        <v>121.8511372840261</v>
       </c>
       <c r="AD2" t="n">
-        <v>87014.76614471308</v>
+        <v>98452.77109984594</v>
       </c>
       <c r="AE2" t="n">
-        <v>119057.4418596999</v>
+        <v>134707.4248484698</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.433755224548015e-06</v>
+        <v>1.248520510065038e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.491666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>107694.7667068103</v>
+        <v>121851.1372840261</v>
       </c>
     </row>
     <row r="3">
@@ -11240,28 +11240,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>72.10535189158159</v>
+        <v>83.54335684671443</v>
       </c>
       <c r="AB3" t="n">
-        <v>98.65772352164093</v>
+        <v>114.3077065104109</v>
       </c>
       <c r="AC3" t="n">
-        <v>89.24196885574466</v>
+        <v>103.3983394329605</v>
       </c>
       <c r="AD3" t="n">
-        <v>72105.35189158159</v>
+        <v>83543.35684671444</v>
       </c>
       <c r="AE3" t="n">
-        <v>98657.72352164093</v>
+        <v>114307.7065104109</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.495302525486879e-06</v>
+        <v>1.45452206458011e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.138541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>89241.96885574466</v>
+        <v>103398.3394329605</v>
       </c>
     </row>
   </sheetData>
@@ -11537,28 +11537,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>145.1369947118354</v>
+        <v>157.1239149245107</v>
       </c>
       <c r="AB2" t="n">
-        <v>198.5828391569509</v>
+        <v>214.9838722175223</v>
       </c>
       <c r="AC2" t="n">
-        <v>179.6303717006331</v>
+        <v>194.4661131849032</v>
       </c>
       <c r="AD2" t="n">
-        <v>145136.9947118354</v>
+        <v>157123.9149245107</v>
       </c>
       <c r="AE2" t="n">
-        <v>198582.8391569509</v>
+        <v>214983.8722175223</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.813708037983218e-06</v>
+        <v>9.032404356322479e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.208333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>179630.3717006331</v>
+        <v>194466.1131849032</v>
       </c>
     </row>
     <row r="3">
@@ -11643,28 +11643,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>75.33992784745836</v>
+        <v>87.24150720556209</v>
       </c>
       <c r="AB3" t="n">
-        <v>103.0834130438892</v>
+        <v>119.367678982263</v>
       </c>
       <c r="AC3" t="n">
-        <v>93.24527678148527</v>
+        <v>107.9753952338166</v>
       </c>
       <c r="AD3" t="n">
-        <v>75339.92784745836</v>
+        <v>87241.50720556208</v>
       </c>
       <c r="AE3" t="n">
-        <v>103083.4130438892</v>
+        <v>119367.678982263</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.418136859396286e-06</v>
+        <v>1.391933435844182e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.082291666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>93245.27678148527</v>
+        <v>107975.3952338166</v>
       </c>
     </row>
     <row r="4">
@@ -11749,28 +11749,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>75.17866616789135</v>
+        <v>87.0802455259951</v>
       </c>
       <c r="AB4" t="n">
-        <v>102.8627676995426</v>
+        <v>119.1470336379163</v>
       </c>
       <c r="AC4" t="n">
-        <v>93.0456895191253</v>
+        <v>107.7758079714566</v>
       </c>
       <c r="AD4" t="n">
-        <v>75178.66616789135</v>
+        <v>87080.24552599509</v>
       </c>
       <c r="AE4" t="n">
-        <v>102862.7676995426</v>
+        <v>119147.0336379163</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.453722564898087e-06</v>
+        <v>1.398610709971757e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.071875</v>
       </c>
       <c r="AH4" t="n">
-        <v>93045.6895191253</v>
+        <v>107775.8079714566</v>
       </c>
     </row>
   </sheetData>
@@ -12046,28 +12046,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>124.0995575171204</v>
+        <v>151.4947955522486</v>
       </c>
       <c r="AB2" t="n">
-        <v>169.7984894809297</v>
+        <v>207.2818627531772</v>
       </c>
       <c r="AC2" t="n">
-        <v>153.5931599585937</v>
+        <v>187.4991726939947</v>
       </c>
       <c r="AD2" t="n">
-        <v>124099.5575171204</v>
+        <v>151494.7955522486</v>
       </c>
       <c r="AE2" t="n">
-        <v>169798.4894809297</v>
+        <v>207281.8627531772</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.036613175560929e-06</v>
+        <v>1.009526321539447e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.916666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>153593.1599585937</v>
+        <v>187499.1726939947</v>
       </c>
     </row>
   </sheetData>
@@ -12343,28 +12343,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>71.5920016104179</v>
+        <v>82.32069723874008</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.95533501953705</v>
+        <v>112.6348096948462</v>
       </c>
       <c r="AC2" t="n">
-        <v>88.60661532647291</v>
+        <v>101.8851015415473</v>
       </c>
       <c r="AD2" t="n">
-        <v>71592.00161041789</v>
+        <v>82320.69723874007</v>
       </c>
       <c r="AE2" t="n">
-        <v>97955.33501953704</v>
+        <v>112634.8096948462</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.141914332738055e-06</v>
+        <v>1.470722604471166e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.38125</v>
       </c>
       <c r="AH2" t="n">
-        <v>88606.61532647291</v>
+        <v>101885.1015415473</v>
       </c>
     </row>
     <row r="3">
@@ -12449,28 +12449,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>71.56282182244837</v>
+        <v>82.29151745077057</v>
       </c>
       <c r="AB3" t="n">
-        <v>97.91540994631578</v>
+        <v>112.594884621625</v>
       </c>
       <c r="AC3" t="n">
-        <v>88.57050064620466</v>
+        <v>101.8489868612791</v>
       </c>
       <c r="AD3" t="n">
-        <v>71562.82182244837</v>
+        <v>82291.51745077057</v>
       </c>
       <c r="AE3" t="n">
-        <v>97915.40994631578</v>
+        <v>112594.884621625</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.168532191117759e-06</v>
+        <v>1.476203976016354e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.372916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>88570.50064620466</v>
+        <v>101848.9868612791</v>
       </c>
     </row>
   </sheetData>
@@ -12746,28 +12746,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.98713030681238</v>
+        <v>85.1631862895652</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.2324557675629</v>
+        <v>116.5240286159497</v>
       </c>
       <c r="AC2" t="n">
-        <v>91.57097226977611</v>
+        <v>105.403138867375</v>
       </c>
       <c r="AD2" t="n">
-        <v>73987.13030681238</v>
+        <v>85163.1862895652</v>
       </c>
       <c r="AE2" t="n">
-        <v>101232.4557675629</v>
+        <v>116524.0286159497</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.196709660144736e-06</v>
+        <v>1.425800683579274e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.276041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>91570.9722697761</v>
+        <v>105403.138867375</v>
       </c>
     </row>
     <row r="3">
@@ -12852,28 +12852,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>71.82943330902673</v>
+        <v>83.00548929177957</v>
       </c>
       <c r="AB3" t="n">
-        <v>98.28019954432079</v>
+        <v>113.5717723927076</v>
       </c>
       <c r="AC3" t="n">
-        <v>88.90047523696161</v>
+        <v>102.7326418345605</v>
       </c>
       <c r="AD3" t="n">
-        <v>71829.43330902673</v>
+        <v>83005.48929177957</v>
       </c>
       <c r="AE3" t="n">
-        <v>98280.1995443208</v>
+        <v>113571.7723927076</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.395281869275746e-06</v>
+        <v>1.465141494156472e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.214583333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>88900.47523696162</v>
+        <v>102732.6418345605</v>
       </c>
     </row>
   </sheetData>
